--- a/Week6/Day1/ExerciseXP/Single IF Beetle Length(ex1).xlsx
+++ b/Week6/Day1/ExerciseXP/Single IF Beetle Length(ex1).xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jenny\Jenny Work for Now\Wise Owl\New Courses\Excel Advanced new Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margotiamanova/Desktop/DI-Bootcamp/Week6/Day1/ExerciseXP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866895B-3DB8-4344-8EB6-620346BF0ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="4869"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -206,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,6 +251,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,28 +574,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.84375" customWidth="1"/>
-    <col min="2" max="2" width="7.3828125" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.61328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.61328125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,205 +605,307 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+        <v>20.7</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>IF($B4 &gt;$B$21,"Long","Short")</f>
+        <v>Long</v>
+      </c>
+      <c r="D4" s="16" t="str">
+        <f>IF(C4="Long","This sample is "&amp;ROUND($B4-$B$21,2)&amp;" longer than avrg","")</f>
+        <v>This sample is 14.01 longer than avrg</v>
+      </c>
       <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8">
         <v>6.1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="9" t="str">
+        <f t="shared" ref="C5:C20" si="0">IF($B5 &gt;$B$21,"Long","Short")</f>
+        <v>Short</v>
+      </c>
+      <c r="D5" s="16" t="str">
+        <f t="shared" ref="D5:D20" si="1">IF(C5="Long","This sample is "&amp;ROUND($B5-$B$21,2)&amp;" longer than avrg","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8">
         <v>2.9</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="F6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>3.5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>3.6</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8">
         <v>3.8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8">
         <v>6.9</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Long</v>
+      </c>
+      <c r="D10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>This sample is 0.21 longer than avrg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>8.1</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Long</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>This sample is 1.41 longer than avrg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>5.3</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>5.2</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="8">
         <v>4.7</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8">
         <v>7.4</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Long</v>
+      </c>
+      <c r="D16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>This sample is 0.71 longer than avrg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Long</v>
+      </c>
+      <c r="D17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>This sample is 2.01 longer than avrg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="8">
         <v>6.2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Short</v>
+      </c>
+      <c r="D18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8">
         <v>7.8</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Long</v>
+      </c>
+      <c r="D19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>This sample is 1.11 longer than avrg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Long</v>
+      </c>
+      <c r="D20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>This sample is 1.51 longer than avrg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="13">
         <f>AVERAGE(B4:B20)</f>
-        <v>5.7764705882352949</v>
+        <v>6.6882352941176473</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
